--- a/contratos/contratos-11-2010.xlsx
+++ b/contratos/contratos-11-2010.xlsx
@@ -532,13 +532,13 @@
     <t>DIAZ JULIA Y DUARTE LAUTARO</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MATELEC INGENIERIA S.R.L.</t>
@@ -865,373 +865,373 @@
     <t>147</t>
   </si>
   <si>
-    <t>1.037,00</t>
-  </si>
-  <si>
-    <t>1.020,00</t>
-  </si>
-  <si>
-    <t>24.999,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>999,60</t>
-  </si>
-  <si>
-    <t>143,35</t>
-  </si>
-  <si>
-    <t>1.225,00</t>
-  </si>
-  <si>
-    <t>84,00</t>
-  </si>
-  <si>
-    <t>13.199,99</t>
-  </si>
-  <si>
-    <t>52.640,00</t>
-  </si>
-  <si>
-    <t>26.798,28</t>
-  </si>
-  <si>
-    <t>12.603,26</t>
-  </si>
-  <si>
-    <t>6.785,90</t>
-  </si>
-  <si>
-    <t>142,96</t>
-  </si>
-  <si>
-    <t>5.937,76</t>
-  </si>
-  <si>
-    <t>317,20</t>
-  </si>
-  <si>
-    <t>256,80</t>
-  </si>
-  <si>
-    <t>7.507,13</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>860,00</t>
-  </si>
-  <si>
-    <t>10,80</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>5.898,03</t>
-  </si>
-  <si>
-    <t>175,00</t>
-  </si>
-  <si>
-    <t>179,34</t>
-  </si>
-  <si>
-    <t>7.873,50</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>1.195,27</t>
-  </si>
-  <si>
-    <t>15.447,22</t>
-  </si>
-  <si>
-    <t>8.665,82</t>
-  </si>
-  <si>
-    <t>2.713,71</t>
-  </si>
-  <si>
-    <t>22,00</t>
-  </si>
-  <si>
-    <t>1.110,69</t>
-  </si>
-  <si>
-    <t>2.961,40</t>
-  </si>
-  <si>
-    <t>211,35</t>
-  </si>
-  <si>
-    <t>2.941,65</t>
-  </si>
-  <si>
-    <t>21,06</t>
-  </si>
-  <si>
-    <t>4.412,72</t>
-  </si>
-  <si>
-    <t>17,22</t>
-  </si>
-  <si>
-    <t>367,27</t>
-  </si>
-  <si>
-    <t>58,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>808,00</t>
-  </si>
-  <si>
-    <t>16,80</t>
-  </si>
-  <si>
-    <t>3.469,55</t>
-  </si>
-  <si>
-    <t>74,55</t>
-  </si>
-  <si>
-    <t>32,00</t>
-  </si>
-  <si>
-    <t>960,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>200,40</t>
-  </si>
-  <si>
-    <t>12.143,20</t>
-  </si>
-  <si>
-    <t>10.225,10</t>
-  </si>
-  <si>
-    <t>6.733,60</t>
-  </si>
-  <si>
-    <t>1.183,00</t>
-  </si>
-  <si>
-    <t>4.032,00</t>
-  </si>
-  <si>
-    <t>591,00</t>
-  </si>
-  <si>
-    <t>190,67</t>
-  </si>
-  <si>
-    <t>3.981,00</t>
-  </si>
-  <si>
-    <t>468,80</t>
-  </si>
-  <si>
-    <t>154,00</t>
-  </si>
-  <si>
-    <t>8.433,62</t>
-  </si>
-  <si>
-    <t>4,29</t>
-  </si>
-  <si>
-    <t>1,54</t>
-  </si>
-  <si>
-    <t>220.445,00</t>
-  </si>
-  <si>
-    <t>0,68</t>
-  </si>
-  <si>
-    <t>0,82</t>
-  </si>
-  <si>
-    <t>5.499,18</t>
-  </si>
-  <si>
-    <t>878,50</t>
-  </si>
-  <si>
-    <t>1.254,00</t>
-  </si>
-  <si>
-    <t>980,00</t>
-  </si>
-  <si>
-    <t>481,15</t>
-  </si>
-  <si>
-    <t>24,00</t>
-  </si>
-  <si>
-    <t>207,92</t>
-  </si>
-  <si>
-    <t>11.260,00</t>
-  </si>
-  <si>
-    <t>3.120,00</t>
-  </si>
-  <si>
-    <t>65,80</t>
-  </si>
-  <si>
-    <t>14.320,00</t>
-  </si>
-  <si>
-    <t>2.640,00</t>
-  </si>
-  <si>
-    <t>865,00</t>
-  </si>
-  <si>
-    <t>223,49</t>
-  </si>
-  <si>
-    <t>488,20</t>
-  </si>
-  <si>
-    <t>182,00</t>
-  </si>
-  <si>
-    <t>395,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>580,00</t>
-  </si>
-  <si>
-    <t>760,00</t>
-  </si>
-  <si>
-    <t>10.382,58</t>
-  </si>
-  <si>
-    <t>1.650,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>12.080,00</t>
-  </si>
-  <si>
-    <t>517,00</t>
-  </si>
-  <si>
-    <t>170,00</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
-    <t>135,00</t>
-  </si>
-  <si>
-    <t>302,00</t>
-  </si>
-  <si>
-    <t>6.600,01</t>
-  </si>
-  <si>
-    <t>102,40</t>
-  </si>
-  <si>
-    <t>1.025,00</t>
-  </si>
-  <si>
-    <t>1.034,78</t>
-  </si>
-  <si>
-    <t>204,00</t>
-  </si>
-  <si>
-    <t>11,96</t>
-  </si>
-  <si>
-    <t>317,30</t>
-  </si>
-  <si>
-    <t>959,00</t>
-  </si>
-  <si>
-    <t>3.696,00</t>
-  </si>
-  <si>
-    <t>34,00</t>
-  </si>
-  <si>
-    <t>216,00</t>
-  </si>
-  <si>
-    <t>15.336,40</t>
-  </si>
-  <si>
-    <t>17.698,70</t>
-  </si>
-  <si>
-    <t>7.650,00</t>
-  </si>
-  <si>
-    <t>414,96</t>
-  </si>
-  <si>
-    <t>2.545,53</t>
-  </si>
-  <si>
-    <t>41.250,00</t>
-  </si>
-  <si>
-    <t>546,00</t>
-  </si>
-  <si>
-    <t>2.600,22</t>
-  </si>
-  <si>
-    <t>831.639,22</t>
-  </si>
-  <si>
-    <t>925,00</t>
-  </si>
-  <si>
-    <t>389.400,00</t>
-  </si>
-  <si>
-    <t>45.000,00</t>
-  </si>
-  <si>
-    <t>149.250,00</t>
-  </si>
-  <si>
-    <t>1.199,23</t>
+    <t>1037.00</t>
+  </si>
+  <si>
+    <t>1020.00</t>
+  </si>
+  <si>
+    <t>24999.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>999.60</t>
+  </si>
+  <si>
+    <t>143.35</t>
+  </si>
+  <si>
+    <t>1225.00</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>13199.99</t>
+  </si>
+  <si>
+    <t>52640.00</t>
+  </si>
+  <si>
+    <t>26798.28</t>
+  </si>
+  <si>
+    <t>12603.26</t>
+  </si>
+  <si>
+    <t>6785.90</t>
+  </si>
+  <si>
+    <t>142.96</t>
+  </si>
+  <si>
+    <t>5937.76</t>
+  </si>
+  <si>
+    <t>317.20</t>
+  </si>
+  <si>
+    <t>256.80</t>
+  </si>
+  <si>
+    <t>7507.13</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>860.00</t>
+  </si>
+  <si>
+    <t>10.80</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>5898.03</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>179.34</t>
+  </si>
+  <si>
+    <t>7873.50</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>1195.27</t>
+  </si>
+  <si>
+    <t>15447.22</t>
+  </si>
+  <si>
+    <t>8665.82</t>
+  </si>
+  <si>
+    <t>2713.71</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>1110.69</t>
+  </si>
+  <si>
+    <t>2961.40</t>
+  </si>
+  <si>
+    <t>211.35</t>
+  </si>
+  <si>
+    <t>2941.65</t>
+  </si>
+  <si>
+    <t>21.06</t>
+  </si>
+  <si>
+    <t>4412.72</t>
+  </si>
+  <si>
+    <t>17.22</t>
+  </si>
+  <si>
+    <t>367.27</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>808.00</t>
+  </si>
+  <si>
+    <t>16.80</t>
+  </si>
+  <si>
+    <t>3469.55</t>
+  </si>
+  <si>
+    <t>74.55</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>960.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>200.40</t>
+  </si>
+  <si>
+    <t>12143.20</t>
+  </si>
+  <si>
+    <t>10225.10</t>
+  </si>
+  <si>
+    <t>6733.60</t>
+  </si>
+  <si>
+    <t>1183.00</t>
+  </si>
+  <si>
+    <t>4032.00</t>
+  </si>
+  <si>
+    <t>591.00</t>
+  </si>
+  <si>
+    <t>190.67</t>
+  </si>
+  <si>
+    <t>3981.00</t>
+  </si>
+  <si>
+    <t>468.80</t>
+  </si>
+  <si>
+    <t>154.00</t>
+  </si>
+  <si>
+    <t>8433.62</t>
+  </si>
+  <si>
+    <t>4.29</t>
+  </si>
+  <si>
+    <t>1.54</t>
+  </si>
+  <si>
+    <t>220445.00</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>5499.18</t>
+  </si>
+  <si>
+    <t>878.50</t>
+  </si>
+  <si>
+    <t>1254.00</t>
+  </si>
+  <si>
+    <t>980.00</t>
+  </si>
+  <si>
+    <t>481.15</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>207.92</t>
+  </si>
+  <si>
+    <t>11260.00</t>
+  </si>
+  <si>
+    <t>3120.00</t>
+  </si>
+  <si>
+    <t>65.80</t>
+  </si>
+  <si>
+    <t>14320.00</t>
+  </si>
+  <si>
+    <t>2640.00</t>
+  </si>
+  <si>
+    <t>865.00</t>
+  </si>
+  <si>
+    <t>223.49</t>
+  </si>
+  <si>
+    <t>488.20</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>395.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>580.00</t>
+  </si>
+  <si>
+    <t>760.00</t>
+  </si>
+  <si>
+    <t>10382.58</t>
+  </si>
+  <si>
+    <t>1650.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>12080.00</t>
+  </si>
+  <si>
+    <t>517.00</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>302.00</t>
+  </si>
+  <si>
+    <t>6600.01</t>
+  </si>
+  <si>
+    <t>102.40</t>
+  </si>
+  <si>
+    <t>1025.00</t>
+  </si>
+  <si>
+    <t>1034.78</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>11.96</t>
+  </si>
+  <si>
+    <t>317.30</t>
+  </si>
+  <si>
+    <t>959.00</t>
+  </si>
+  <si>
+    <t>3696.00</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>216.00</t>
+  </si>
+  <si>
+    <t>15336.40</t>
+  </si>
+  <si>
+    <t>17698.70</t>
+  </si>
+  <si>
+    <t>7650.00</t>
+  </si>
+  <si>
+    <t>414.96</t>
+  </si>
+  <si>
+    <t>2545.53</t>
+  </si>
+  <si>
+    <t>41250.00</t>
+  </si>
+  <si>
+    <t>546.00</t>
+  </si>
+  <si>
+    <t>2600.22</t>
+  </si>
+  <si>
+    <t>831639.22</t>
+  </si>
+  <si>
+    <t>925.00</t>
+  </si>
+  <si>
+    <t>389400.00</t>
+  </si>
+  <si>
+    <t>45000.00</t>
+  </si>
+  <si>
+    <t>149250.00</t>
+  </si>
+  <si>
+    <t>1199.23</t>
   </si>
 </sst>
 </file>
